--- a/webroot/templates/vendor_import_template.xlsx
+++ b/webroot/templates/vendor_import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\bsms\webroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CB5B90-26D3-4546-8DC3-AF1C676539B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD2454A-8F7F-490B-B7CF-6D37D08D39F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sr No</t>
   </si>
@@ -49,6 +49,27 @@
   </si>
   <si>
     <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>Pur. Orgzn 2</t>
+  </si>
+  <si>
+    <t>Account Group 1</t>
+  </si>
+  <si>
+    <t>Schema Group 1</t>
+  </si>
+  <si>
+    <t>Jhon Kenedy</t>
+  </si>
+  <si>
+    <t>jhon.kenedy@example.com</t>
   </si>
 </sst>
 </file>
@@ -84,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,22 +388,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -410,6 +432,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>9876543210</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
